--- a/AMAP/HeatCapacitance.xlsx
+++ b/AMAP/HeatCapacitance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\User-save-space\Thursday\AMAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AdvPhysicsLab\AMAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>dQ/dT = C</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Ih</t>
   </si>
   <si>
-    <t>P = I^2*R</t>
-  </si>
-  <si>
     <t>dT = dTq + dTback</t>
   </si>
   <si>
@@ -100,13 +97,35 @@
   <si>
     <t>C =</t>
   </si>
+  <si>
+    <t>Volume=</t>
+  </si>
+  <si>
+    <t>Tavg=</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Tavg</t>
+  </si>
+  <si>
+    <t>J K^-1</t>
+  </si>
+  <si>
+    <t>in Joules</t>
+  </si>
+  <si>
+    <t>Q = I^2*R</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -143,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -161,11 +180,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,11 +966,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247740816"/>
-        <c:axId val="247740424"/>
+        <c:axId val="253666616"/>
+        <c:axId val="253668576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247740816"/>
+        <c:axId val="253666616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,12 +1027,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247740424"/>
+        <c:crossAx val="253668576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247740424"/>
+        <c:axId val="253668576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +1089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247740816"/>
+        <c:crossAx val="253666616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1870,11 +1893,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245946576"/>
-        <c:axId val="319630128"/>
+        <c:axId val="253667792"/>
+        <c:axId val="253668968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245946576"/>
+        <c:axId val="253667792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,12 +1954,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319630128"/>
+        <c:crossAx val="253668968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319630128"/>
+        <c:axId val="253668968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +2016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245946576"/>
+        <c:crossAx val="253667792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2802,11 +2825,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240324488"/>
-        <c:axId val="313881784"/>
+        <c:axId val="298050688"/>
+        <c:axId val="298050296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240324488"/>
+        <c:axId val="298050688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2863,12 +2886,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313881784"/>
+        <c:crossAx val="298050296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="313881784"/>
+        <c:axId val="298050296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,7 +2948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240324488"/>
+        <c:crossAx val="298050688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3729,11 +3752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320339192"/>
-        <c:axId val="240325664"/>
+        <c:axId val="298051080"/>
+        <c:axId val="298047552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320339192"/>
+        <c:axId val="298051080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3790,12 +3813,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240325664"/>
+        <c:crossAx val="298047552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240325664"/>
+        <c:axId val="298047552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3852,7 +3875,500 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320339192"/>
+        <c:crossAx val="298051080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heat</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Capacity LHe vs. Tempurature</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13971106736657918"/>
+                  <c:y val="-3.2349081364829398E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AI$9:$AI$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7031801619693832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7110867913839498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.72290703712764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$9:$AJ$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.846153846153845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="300207832"/>
+        <c:axId val="300209008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="300207832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempurature</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (K)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300209008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="300209008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Heat Capacity (J/K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300207832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4061,6 +4577,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5610,6 +6166,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6242,6 +7314,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>125939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>243417</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>74082</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6515,8 +7617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="AC13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AV34" sqref="AV34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6530,7 +7632,7 @@
     <col min="22" max="29" width="9.140625" style="3"/>
     <col min="30" max="30" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="31" max="33" width="9.140625" style="3"/>
-    <col min="34" max="34" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.140625" style="3" customWidth="1"/>
     <col min="35" max="36" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -6543,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
@@ -6559,9 +7661,11 @@
       </c>
       <c r="X2" s="6"/>
       <c r="Y2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -6650,8 +7754,13 @@
       <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4">
+        <f>AVERAGE(E9:E109)</f>
+        <v>1.6973940697060599</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -6663,8 +7772,13 @@
       <c r="L5" s="4">
         <v>0.02</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="4"/>
+      <c r="M5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="4">
+        <f>AVERAGE(N9:N109)</f>
+        <v>1.7031801619693832</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -6676,8 +7790,13 @@
       <c r="U5" s="4">
         <v>0.03</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="4"/>
+      <c r="V5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" s="4">
+        <f>AVERAGE(W9:W109)</f>
+        <v>1.7110867913839498</v>
+      </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
@@ -6689,8 +7808,13 @@
       <c r="AD5" s="4">
         <v>0.05</v>
       </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="4"/>
+      <c r="AE5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>AVERAGE(AF9:AF109)</f>
+        <v>1.72290703712764</v>
+      </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="6"/>
@@ -6698,7 +7822,7 @@
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5">
         <v>8.9999999999999998E-4</v>
@@ -6711,14 +7835,14 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="4">
         <f>0.0016-$C$6</f>
         <v>7.000000000000001E-4</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N6" s="4">
         <f>N4/L6</f>
@@ -6730,14 +7854,14 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U6" s="4">
         <f>0.0022-$C$6</f>
         <v>1.3000000000000002E-3</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W6" s="4">
         <f>W4/U6</f>
@@ -6749,14 +7873,14 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD6" s="4">
         <f>0.0034-$C$6</f>
         <v>2.4999999999999996E-3</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF6" s="4">
         <f>AF4/AD6</f>
@@ -6768,6 +7892,9 @@
       <c r="AJ6" s="4"/>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
@@ -6776,27 +7903,44 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4">
+        <f>N6/10</f>
+        <v>11.428571428571427</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
+      <c r="T7" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="V7" s="6"/>
-      <c r="W7" s="4"/>
+      <c r="W7" s="4">
+        <f>W6/10</f>
+        <v>13.846153846153845</v>
+      </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
+      <c r="AC7" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="AE7" s="6"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
+      <c r="AF7" s="4">
+        <f>AF6/10</f>
+        <v>20.000000000000007</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="4"/>
@@ -6866,9 +8010,12 @@
         <v>3</v>
       </c>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
+      <c r="AI8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
@@ -6896,21 +8043,21 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" ref="N9:N50" si="1">(57045-L9)/23070</f>
+        <f>(57045-L9)/23070</f>
         <v>1.6941048981361075</v>
       </c>
       <c r="T9" s="3">
         <v>0.17846999999999999</v>
       </c>
       <c r="U9" s="7">
-        <f t="shared" ref="U9:U58" si="2">T9*100000</f>
+        <f t="shared" ref="U9:U58" si="1">T9*100000</f>
         <v>17847</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <f t="shared" ref="W9:W58" si="3">(57045-U9)/23070</f>
+        <f t="shared" ref="W9:W58" si="2">(57045-U9)/23070</f>
         <v>1.6990897269180754</v>
       </c>
       <c r="AC9" s="3">
@@ -6927,21 +8074,28 @@
         <f>(57045-AD9)/23070</f>
         <v>1.7048981361074989</v>
       </c>
-      <c r="AH9" s="7"/>
+      <c r="AI9" s="3">
+        <f>N5</f>
+        <v>1.7031801619693832</v>
+      </c>
+      <c r="AJ9" s="11">
+        <f>N7</f>
+        <v>11.428571428571427</v>
+      </c>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>0.17988999999999999</v>
       </c>
       <c r="C10" s="9">
-        <f t="shared" ref="C10:C73" si="4">B10*100000</f>
+        <f t="shared" ref="C10:C73" si="3">B10*100000</f>
         <v>17989</v>
       </c>
       <c r="D10" s="3">
         <v>0.1</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" ref="E10:E73" si="5">(57045-C10)/23070</f>
+        <f t="shared" ref="E10:E73" si="4">(57045-C10)/23070</f>
         <v>1.6929345470307759</v>
       </c>
       <c r="K10" s="3">
@@ -6955,45 +8109,52 @@
         <v>0.1</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="1"/>
+        <f>(57045-L10)/23070</f>
         <v>1.6944516688339835</v>
       </c>
       <c r="T10" s="3">
         <v>0.1784</v>
       </c>
       <c r="U10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17840</v>
       </c>
       <c r="V10" s="3">
         <v>0.1</v>
       </c>
       <c r="W10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.699393151278717</v>
       </c>
       <c r="AC10" s="3">
         <v>0.17695</v>
       </c>
       <c r="AD10" s="7">
-        <f t="shared" ref="AD10:AD73" si="6">AC10*100000</f>
+        <f t="shared" ref="AD10:AD73" si="5">AC10*100000</f>
         <v>17695</v>
       </c>
       <c r="AE10" s="3">
         <v>0.1</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" ref="AF10:AF73" si="7">(57045-AD10)/23070</f>
+        <f t="shared" ref="AF10:AF73" si="6">(57045-AD10)/23070</f>
         <v>1.7056783701777201</v>
       </c>
-      <c r="AH10" s="7"/>
+      <c r="AI10" s="3">
+        <f>W5</f>
+        <v>1.7110867913839498</v>
+      </c>
+      <c r="AJ10" s="11">
+        <f>W7</f>
+        <v>13.846153846153845</v>
+      </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>0.17988000000000001</v>
       </c>
       <c r="C11" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17988</v>
       </c>
       <c r="D11" s="3">
@@ -7001,7 +8162,7 @@
         <v>0.2</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6929778933680104</v>
       </c>
       <c r="K11" s="3">
@@ -7015,45 +8176,52 @@
         <v>0.2</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N11:N50" si="7">(57045-L11)/23070</f>
         <v>1.6947984395318596</v>
       </c>
       <c r="T11" s="3">
         <v>0.17834</v>
       </c>
       <c r="U11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17834</v>
       </c>
       <c r="V11" s="3">
         <v>0.2</v>
       </c>
       <c r="W11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.699653229302124</v>
       </c>
       <c r="AC11" s="3">
         <v>0.17687</v>
       </c>
       <c r="AD11" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17687</v>
       </c>
       <c r="AE11" s="3">
         <v>0.2</v>
       </c>
       <c r="AF11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.706025140875596</v>
       </c>
-      <c r="AH11" s="7"/>
+      <c r="AI11" s="3">
+        <f>AF5</f>
+        <v>1.72290703712764</v>
+      </c>
+      <c r="AJ11" s="11">
+        <f>AF7</f>
+        <v>20.000000000000007</v>
+      </c>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>0.17985999999999999</v>
       </c>
       <c r="C12" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17986</v>
       </c>
       <c r="D12" s="3">
@@ -7061,7 +8229,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6930645860424793</v>
       </c>
       <c r="K12" s="3">
@@ -7075,35 +8243,35 @@
         <v>0.3</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6950151712180321</v>
       </c>
       <c r="T12" s="3">
         <v>0.17827999999999999</v>
       </c>
       <c r="U12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17828</v>
       </c>
       <c r="V12" s="3">
         <v>0.3</v>
       </c>
       <c r="W12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.699913307325531</v>
       </c>
       <c r="AC12" s="3">
         <v>0.17677999999999999</v>
       </c>
       <c r="AD12" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17678</v>
       </c>
       <c r="AE12" s="3">
         <v>0.3</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7064152579107066</v>
       </c>
       <c r="AH12" s="7"/>
@@ -7113,7 +8281,7 @@
         <v>0.17982000000000001</v>
       </c>
       <c r="C13" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17982</v>
       </c>
       <c r="D13" s="3">
@@ -7121,7 +8289,7 @@
         <v>0.4</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6932379713914174</v>
       </c>
       <c r="K13" s="3">
@@ -7135,35 +8303,35 @@
         <v>0.4</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6952319029042047</v>
       </c>
       <c r="T13" s="3">
         <v>0.17821999999999999</v>
       </c>
       <c r="U13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17822</v>
       </c>
       <c r="V13" s="3">
         <v>0.4</v>
       </c>
       <c r="W13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.700173385348938</v>
       </c>
       <c r="AC13" s="3">
         <v>0.1767</v>
       </c>
       <c r="AD13" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17670</v>
       </c>
       <c r="AE13" s="3">
         <v>0.4</v>
       </c>
       <c r="AF13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7067620286085825</v>
       </c>
       <c r="AH13" s="7"/>
@@ -7173,7 +8341,7 @@
         <v>0.17979999999999999</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17980</v>
       </c>
       <c r="D14" s="3">
@@ -7181,7 +8349,7 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6933246640658863</v>
       </c>
       <c r="K14" s="3">
@@ -7195,35 +8363,35 @@
         <v>0.5</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6954486345903772</v>
       </c>
       <c r="T14" s="3">
         <v>0.17816000000000001</v>
       </c>
       <c r="U14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17816</v>
       </c>
       <c r="V14" s="3">
         <v>0.5</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.700433463372345</v>
       </c>
       <c r="AC14" s="3">
         <v>0.17662</v>
       </c>
       <c r="AD14" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17662</v>
       </c>
       <c r="AE14" s="3">
         <v>0.5</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7071087993064586</v>
       </c>
       <c r="AH14" s="7"/>
@@ -7233,7 +8401,7 @@
         <v>0.17978</v>
       </c>
       <c r="C15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17978</v>
       </c>
       <c r="D15" s="3">
@@ -7241,7 +8409,7 @@
         <v>0.6</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6934113567403555</v>
       </c>
       <c r="K15" s="3">
@@ -7255,35 +8423,35 @@
         <v>0.6</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6957087126137842</v>
       </c>
       <c r="T15" s="3">
         <v>0.17810000000000001</v>
       </c>
       <c r="U15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17810</v>
       </c>
       <c r="V15" s="3">
         <v>0.6</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.700693541395752</v>
       </c>
       <c r="AC15" s="3">
         <v>0.17654</v>
       </c>
       <c r="AD15" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17654</v>
       </c>
       <c r="AE15" s="3">
         <v>0.6</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7074555700043346</v>
       </c>
       <c r="AH15" s="7"/>
@@ -7293,7 +8461,7 @@
         <v>0.17977000000000001</v>
       </c>
       <c r="C16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17977</v>
       </c>
       <c r="D16" s="3">
@@ -7301,7 +8469,7 @@
         <v>0.7</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6934547030775899</v>
       </c>
       <c r="K16" s="3">
@@ -7315,35 +8483,35 @@
         <v>0.7</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6960988296488946</v>
       </c>
       <c r="T16" s="3">
         <v>0.17799000000000001</v>
       </c>
       <c r="U16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17799</v>
       </c>
       <c r="V16" s="3">
         <v>0.7</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7011703511053315</v>
       </c>
       <c r="AC16" s="3">
         <v>0.17638000000000001</v>
       </c>
       <c r="AD16" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17638</v>
       </c>
       <c r="AE16" s="3">
         <v>0.7</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7081491114000866</v>
       </c>
       <c r="AH16" s="7"/>
@@ -7353,7 +8521,7 @@
         <v>0.17974000000000001</v>
       </c>
       <c r="C17" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17974</v>
       </c>
       <c r="D17" s="3">
@@ -7361,7 +8529,7 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6935847420892935</v>
       </c>
       <c r="K17" s="3">
@@ -7375,35 +8543,35 @@
         <v>0.8</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6963155613350671</v>
       </c>
       <c r="T17" s="3">
         <v>0.17793</v>
       </c>
       <c r="U17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17793</v>
       </c>
       <c r="V17" s="3">
         <v>0.8</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7014304291287385</v>
       </c>
       <c r="AC17" s="3">
         <v>0.17630000000000001</v>
       </c>
       <c r="AD17" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17630</v>
       </c>
       <c r="AE17" s="3">
         <v>0.8</v>
       </c>
       <c r="AF17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7084958820979628</v>
       </c>
       <c r="AH17" s="7"/>
@@ -7413,7 +8581,7 @@
         <v>0.17973</v>
       </c>
       <c r="C18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17973</v>
       </c>
       <c r="D18" s="3">
@@ -7421,7 +8589,7 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.693628088426528</v>
       </c>
       <c r="K18" s="3">
@@ -7435,35 +8603,35 @@
         <v>0.9</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6964456003467707</v>
       </c>
       <c r="T18" s="3">
         <v>0.17787</v>
       </c>
       <c r="U18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17787</v>
       </c>
       <c r="V18" s="3">
         <v>0.9</v>
       </c>
       <c r="W18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7016905071521455</v>
       </c>
       <c r="AC18" s="3">
         <v>0.17621999999999999</v>
       </c>
       <c r="AD18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17622</v>
       </c>
       <c r="AE18" s="3">
         <v>0.9</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7088426527958387</v>
       </c>
       <c r="AH18" s="7"/>
@@ -7473,7 +8641,7 @@
         <v>0.17971000000000001</v>
       </c>
       <c r="C19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17971</v>
       </c>
       <c r="D19" s="3">
@@ -7481,7 +8649,7 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6937147811009969</v>
       </c>
       <c r="K19" s="3">
@@ -7495,35 +8663,35 @@
         <v>1</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6966623320329433</v>
       </c>
       <c r="T19" s="3">
         <v>0.17782000000000001</v>
       </c>
       <c r="U19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17782</v>
       </c>
       <c r="V19" s="3">
         <v>1</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7019072388383181</v>
       </c>
       <c r="AC19" s="3">
         <v>0.17613999999999999</v>
       </c>
       <c r="AD19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17614</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7091894234937148</v>
       </c>
       <c r="AH19" s="7"/>
@@ -7533,7 +8701,7 @@
         <v>0.17968000000000001</v>
       </c>
       <c r="C20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17968</v>
       </c>
       <c r="D20" s="3">
@@ -7541,7 +8709,7 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6938448201127005</v>
       </c>
       <c r="K20" s="3">
@@ -7555,35 +8723,35 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6968357173818813</v>
       </c>
       <c r="T20" s="3">
         <v>0.17776</v>
       </c>
       <c r="U20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17776</v>
       </c>
       <c r="V20" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="W20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7021673168617253</v>
       </c>
       <c r="AC20" s="3">
         <v>0.17605999999999999</v>
       </c>
       <c r="AD20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17606</v>
       </c>
       <c r="AE20" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="AF20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7095361941915908</v>
       </c>
       <c r="AH20" s="7"/>
@@ -7593,7 +8761,7 @@
         <v>0.17965999999999999</v>
       </c>
       <c r="C21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17966</v>
       </c>
       <c r="D21" s="3">
@@ -7601,7 +8769,7 @@
         <v>1.2</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6939315127871695</v>
       </c>
       <c r="K21" s="3">
@@ -7615,35 +8783,35 @@
         <v>1.2</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6970091027308192</v>
       </c>
       <c r="T21" s="3">
         <v>0.17771000000000001</v>
       </c>
       <c r="U21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17771</v>
       </c>
       <c r="V21" s="3">
         <v>1.2</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7023840485478976</v>
       </c>
       <c r="AC21" s="3">
         <v>0.17599000000000001</v>
       </c>
       <c r="AD21" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17599</v>
       </c>
       <c r="AE21" s="3">
         <v>1.2</v>
       </c>
       <c r="AF21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7098396185522324</v>
       </c>
       <c r="AH21" s="7"/>
@@ -7653,7 +8821,7 @@
         <v>0.17963999999999999</v>
       </c>
       <c r="C22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17964</v>
       </c>
       <c r="D22" s="3">
@@ -7661,7 +8829,7 @@
         <v>1.3</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6940182054616384</v>
       </c>
       <c r="K22" s="3">
@@ -7675,35 +8843,35 @@
         <v>1.3</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6973558734286953</v>
       </c>
       <c r="T22" s="3">
         <v>0.17760999999999999</v>
       </c>
       <c r="U22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17761</v>
       </c>
       <c r="V22" s="3">
         <v>1.3</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7028175119202427</v>
       </c>
       <c r="AC22" s="3">
         <v>0.17591000000000001</v>
       </c>
       <c r="AD22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17591</v>
       </c>
       <c r="AE22" s="3">
         <v>1.3</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7101863892501084</v>
       </c>
       <c r="AH22" s="7"/>
@@ -7713,7 +8881,7 @@
         <v>0.17962</v>
       </c>
       <c r="C23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17962</v>
       </c>
       <c r="D23" s="3">
@@ -7721,7 +8889,7 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6941048981361075</v>
       </c>
       <c r="K23" s="3">
@@ -7735,35 +8903,35 @@
         <v>1.4</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6975292587776334</v>
       </c>
       <c r="T23" s="3">
         <v>0.17756</v>
       </c>
       <c r="U23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17756</v>
       </c>
       <c r="V23" s="3">
         <v>1.4</v>
       </c>
       <c r="W23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7030342436064152</v>
       </c>
       <c r="AC23" s="3">
         <v>0.17576</v>
       </c>
       <c r="AD23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17576</v>
       </c>
       <c r="AE23" s="3">
         <v>1.4</v>
       </c>
       <c r="AF23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.710836584308626</v>
       </c>
       <c r="AH23" s="7"/>
@@ -7773,7 +8941,7 @@
         <v>0.17960000000000001</v>
       </c>
       <c r="C24" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17960</v>
       </c>
       <c r="D24" s="3">
@@ -7781,7 +8949,7 @@
         <v>1.5000000000000002</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6941915908105765</v>
       </c>
       <c r="K24" s="3">
@@ -7795,35 +8963,35 @@
         <v>1.5</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6977026441265712</v>
       </c>
       <c r="T24" s="3">
         <v>0.17749999999999999</v>
       </c>
       <c r="U24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17750</v>
       </c>
       <c r="V24" s="3">
         <v>1.5</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7032943216298222</v>
       </c>
       <c r="AC24" s="3">
         <v>0.17569000000000001</v>
       </c>
       <c r="AD24" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17569</v>
       </c>
       <c r="AE24" s="3">
         <v>1.5</v>
       </c>
       <c r="AF24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7111400086692674</v>
       </c>
       <c r="AH24" s="7"/>
@@ -7833,7 +9001,7 @@
         <v>0.17957999999999999</v>
       </c>
       <c r="C25" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17958</v>
       </c>
       <c r="D25" s="3">
@@ -7841,7 +9009,7 @@
         <v>1.6000000000000003</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6942782834850456</v>
       </c>
       <c r="K25" s="3">
@@ -7855,35 +9023,35 @@
         <v>1.6</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6978760294755093</v>
       </c>
       <c r="T25" s="3">
         <v>0.17746000000000001</v>
       </c>
       <c r="U25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17746</v>
       </c>
       <c r="V25" s="3">
         <v>1.6</v>
       </c>
       <c r="W25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7034677069787603</v>
       </c>
       <c r="AC25" s="3">
         <v>0.17560999999999999</v>
       </c>
       <c r="AD25" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17561</v>
       </c>
       <c r="AE25" s="3">
         <v>1.6</v>
       </c>
       <c r="AF25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7114867793671436</v>
       </c>
       <c r="AH25" s="7"/>
@@ -7893,7 +9061,7 @@
         <v>0.17954999999999999</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17955</v>
       </c>
       <c r="D26" s="3">
@@ -7901,7 +9069,7 @@
         <v>1.7000000000000004</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.694408322496749</v>
       </c>
       <c r="K26" s="3">
@@ -7915,35 +9083,35 @@
         <v>1.7</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6980494148244474</v>
       </c>
       <c r="T26" s="3">
         <v>0.1774</v>
       </c>
       <c r="U26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17740</v>
       </c>
       <c r="V26" s="3">
         <v>1.7</v>
       </c>
       <c r="W26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7037277850021673</v>
       </c>
       <c r="AC26" s="3">
         <v>0.17554</v>
       </c>
       <c r="AD26" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17554</v>
       </c>
       <c r="AE26" s="3">
         <v>1.7</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.711790203727785</v>
       </c>
       <c r="AH26" s="7"/>
@@ -7953,7 +9121,7 @@
         <v>0.17953</v>
       </c>
       <c r="C27" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17953</v>
       </c>
       <c r="D27" s="3">
@@ -7961,7 +9129,7 @@
         <v>1.8000000000000005</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6944950151712179</v>
       </c>
       <c r="K27" s="3">
@@ -7975,35 +9143,35 @@
         <v>1.8</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6981361074989163</v>
       </c>
       <c r="T27" s="3">
         <v>0.17735000000000001</v>
       </c>
       <c r="U27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17735</v>
       </c>
       <c r="V27" s="3">
         <v>1.8</v>
       </c>
       <c r="W27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7039445166883398</v>
       </c>
       <c r="AC27" s="3">
         <v>0.17546</v>
       </c>
       <c r="AD27" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17546</v>
       </c>
       <c r="AE27" s="3">
         <v>1.8</v>
       </c>
       <c r="AF27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7121369744256609</v>
       </c>
       <c r="AH27" s="7"/>
@@ -8013,7 +9181,7 @@
         <v>0.17951</v>
       </c>
       <c r="C28" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17951</v>
       </c>
       <c r="D28" s="3">
@@ -8021,7 +9189,7 @@
         <v>1.9000000000000006</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6945817078456871</v>
       </c>
       <c r="K28" s="3">
@@ -8035,35 +9203,35 @@
         <v>1.9</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6985262245340269</v>
       </c>
       <c r="T28" s="3">
         <v>0.17730000000000001</v>
       </c>
       <c r="U28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17730</v>
       </c>
       <c r="V28" s="3">
         <v>1.9</v>
       </c>
       <c r="W28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7041612483745123</v>
       </c>
       <c r="AC28" s="3">
         <v>0.17538999999999999</v>
       </c>
       <c r="AD28" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17539</v>
       </c>
       <c r="AE28" s="3">
         <v>1.9</v>
       </c>
       <c r="AF28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7124403987863026</v>
       </c>
       <c r="AH28" s="7"/>
@@ -8073,7 +9241,7 @@
         <v>0.17949999999999999</v>
       </c>
       <c r="C29" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17950</v>
       </c>
       <c r="D29" s="3">
@@ -8081,7 +9249,7 @@
         <v>2.0000000000000004</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6946250541829215</v>
       </c>
       <c r="K29" s="3">
@@ -8095,35 +9263,35 @@
         <v>2</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.698699609882965</v>
       </c>
       <c r="T29" s="3">
         <v>0.17721000000000001</v>
       </c>
       <c r="U29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17721</v>
       </c>
       <c r="V29" s="3">
         <v>2</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7045513654096229</v>
       </c>
       <c r="AC29" s="3">
         <v>0.17524000000000001</v>
       </c>
       <c r="AD29" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17524</v>
       </c>
       <c r="AE29" s="3">
         <v>2</v>
       </c>
       <c r="AF29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7130905938448202</v>
       </c>
       <c r="AH29" s="7"/>
@@ -8133,7 +9301,7 @@
         <v>0.17948</v>
       </c>
       <c r="C30" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17948</v>
       </c>
       <c r="D30" s="3">
@@ -8141,7 +9309,7 @@
         <v>2.1000000000000005</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6947117468573905</v>
       </c>
       <c r="K30" s="3">
@@ -8155,35 +9323,35 @@
         <v>2.1</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6987863025574339</v>
       </c>
       <c r="T30" s="3">
         <v>0.17716000000000001</v>
       </c>
       <c r="U30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17716</v>
       </c>
       <c r="V30" s="3">
         <v>2.1</v>
       </c>
       <c r="W30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7047680970957955</v>
       </c>
       <c r="AC30" s="3">
         <v>0.17516999999999999</v>
       </c>
       <c r="AD30" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17517</v>
       </c>
       <c r="AE30" s="3">
         <v>2.1</v>
       </c>
       <c r="AF30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7133940182054617</v>
       </c>
       <c r="AH30" s="7"/>
@@ -8193,7 +9361,7 @@
         <v>0.17946000000000001</v>
       </c>
       <c r="C31" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17946</v>
       </c>
       <c r="D31" s="3">
@@ -8201,7 +9369,7 @@
         <v>2.2000000000000006</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6947984395318596</v>
       </c>
       <c r="K31" s="3">
@@ -8215,35 +9383,35 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6989163415691375</v>
       </c>
       <c r="T31" s="3">
         <v>0.17710999999999999</v>
       </c>
       <c r="U31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17711</v>
       </c>
       <c r="V31" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="W31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.704984828781968</v>
       </c>
       <c r="AC31" s="3">
         <v>0.17510000000000001</v>
       </c>
       <c r="AD31" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17510</v>
       </c>
       <c r="AE31" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="AF31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7136974425661031</v>
       </c>
       <c r="AH31" s="7"/>
@@ -8253,7 +9421,7 @@
         <v>0.17943999999999999</v>
       </c>
       <c r="C32" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17944</v>
       </c>
       <c r="D32" s="3">
@@ -8261,7 +9429,7 @@
         <v>2.3000000000000007</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6948851322063285</v>
       </c>
       <c r="K32" s="3">
@@ -8275,35 +9443,35 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6991330732553098</v>
       </c>
       <c r="T32" s="3">
         <v>0.17706</v>
       </c>
       <c r="U32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17706</v>
       </c>
       <c r="V32" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="W32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7052015604681405</v>
       </c>
       <c r="AC32" s="3">
         <v>0.17502999999999999</v>
       </c>
       <c r="AD32" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17503</v>
       </c>
       <c r="AE32" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="AF32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7140008669267446</v>
       </c>
       <c r="AH32" s="7"/>
@@ -8313,7 +9481,7 @@
         <v>0.1794</v>
       </c>
       <c r="C33" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17940</v>
       </c>
       <c r="D33" s="3">
@@ -8321,7 +9489,7 @@
         <v>2.4000000000000008</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6950585175552666</v>
       </c>
       <c r="K33" s="3">
@@ -8335,35 +9503,35 @@
         <v>2.4</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6992631122670134</v>
       </c>
       <c r="T33" s="3">
         <v>0.17702000000000001</v>
       </c>
       <c r="U33" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17702</v>
       </c>
       <c r="V33" s="3">
         <v>2.4</v>
       </c>
       <c r="W33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7053749458170784</v>
       </c>
       <c r="AC33" s="3">
         <v>0.17496</v>
       </c>
       <c r="AD33" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17496</v>
       </c>
       <c r="AE33" s="3">
         <v>2.4</v>
       </c>
       <c r="AF33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7143042912873863</v>
       </c>
       <c r="AH33" s="7"/>
@@ -8373,7 +9541,7 @@
         <v>0.17938000000000001</v>
       </c>
       <c r="C34" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17938</v>
       </c>
       <c r="D34" s="3">
@@ -8381,7 +9549,7 @@
         <v>2.5000000000000009</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6951452102297355</v>
       </c>
       <c r="K34" s="3">
@@ -8395,35 +9563,35 @@
         <v>2.5</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.699393151278717</v>
       </c>
       <c r="T34" s="3">
         <v>0.17696999999999999</v>
       </c>
       <c r="U34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17697</v>
       </c>
       <c r="V34" s="3">
         <v>2.5</v>
       </c>
       <c r="W34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7055916775032509</v>
       </c>
       <c r="AC34" s="3">
         <v>0.17488999999999999</v>
       </c>
       <c r="AD34" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17489</v>
       </c>
       <c r="AE34" s="3">
         <v>2.5</v>
       </c>
       <c r="AF34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7146077156480277</v>
       </c>
       <c r="AH34" s="7"/>
@@ -8433,7 +9601,7 @@
         <v>0.17937</v>
       </c>
       <c r="C35" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17937</v>
       </c>
       <c r="D35" s="3">
@@ -8441,7 +9609,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.69518855656697</v>
       </c>
       <c r="K35" s="3">
@@ -8455,35 +9623,35 @@
         <v>2.6</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6996965756393585</v>
       </c>
       <c r="T35" s="3">
         <v>0.17687</v>
       </c>
       <c r="U35" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17687</v>
       </c>
       <c r="V35" s="3">
         <v>2.6</v>
       </c>
       <c r="W35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.706025140875596</v>
       </c>
       <c r="AC35" s="3">
         <v>0.17482</v>
       </c>
       <c r="AD35" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17482</v>
       </c>
       <c r="AE35" s="3">
         <v>2.6</v>
       </c>
       <c r="AF35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7149111400086692</v>
       </c>
       <c r="AH35" s="7"/>
@@ -8493,7 +9661,7 @@
         <v>0.17935000000000001</v>
       </c>
       <c r="C36" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17935</v>
       </c>
       <c r="D36" s="3">
@@ -8501,7 +9669,7 @@
         <v>2.7000000000000011</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6952752492414391</v>
       </c>
       <c r="K36" s="3">
@@ -8515,35 +9683,35 @@
         <v>2.7</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6998266146510619</v>
       </c>
       <c r="T36" s="3">
         <v>0.17682999999999999</v>
       </c>
       <c r="U36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17683</v>
       </c>
       <c r="V36" s="3">
         <v>2.7</v>
       </c>
       <c r="W36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7061985262245341</v>
       </c>
       <c r="AC36" s="3">
         <v>0.17468</v>
       </c>
       <c r="AD36" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17468</v>
       </c>
       <c r="AE36" s="3">
         <v>2.7</v>
       </c>
       <c r="AF36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7155179887299523</v>
       </c>
       <c r="AH36" s="7"/>
@@ -8553,7 +9721,7 @@
         <v>0.17932999999999999</v>
       </c>
       <c r="C37" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17933</v>
       </c>
       <c r="D37" s="3">
@@ -8561,7 +9729,7 @@
         <v>2.8000000000000012</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6953619419159081</v>
       </c>
       <c r="K37" s="3">
@@ -8575,35 +9743,35 @@
         <v>2.8</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6999566536627655</v>
       </c>
       <c r="T37" s="3">
         <v>0.17679</v>
       </c>
       <c r="U37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17679</v>
       </c>
       <c r="V37" s="3">
         <v>2.8</v>
       </c>
       <c r="W37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7063719115734721</v>
       </c>
       <c r="AC37" s="3">
         <v>0.17460000000000001</v>
       </c>
       <c r="AD37" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17460</v>
       </c>
       <c r="AE37" s="3">
         <v>2.8</v>
       </c>
       <c r="AF37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7158647594278285</v>
       </c>
       <c r="AH37" s="7"/>
@@ -8613,7 +9781,7 @@
         <v>0.17931</v>
       </c>
       <c r="C38" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17931</v>
       </c>
       <c r="D38" s="3">
@@ -8621,7 +9789,7 @@
         <v>2.9000000000000012</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6954486345903772</v>
       </c>
       <c r="K38" s="3">
@@ -8635,35 +9803,35 @@
         <v>2.9</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7001300390117036</v>
       </c>
       <c r="T38" s="3">
         <v>0.17674000000000001</v>
       </c>
       <c r="U38" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17674</v>
       </c>
       <c r="V38" s="3">
         <v>2.9</v>
       </c>
       <c r="W38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7065886432596447</v>
       </c>
       <c r="AC38" s="3">
         <v>0.17454</v>
       </c>
       <c r="AD38" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17454</v>
       </c>
       <c r="AE38" s="3">
         <v>2.9</v>
       </c>
       <c r="AF38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7161248374512355</v>
       </c>
       <c r="AH38" s="7"/>
@@ -8673,7 +9841,7 @@
         <v>0.17927999999999999</v>
       </c>
       <c r="C39" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17928</v>
       </c>
       <c r="D39" s="3">
@@ -8681,7 +9849,7 @@
         <v>3.0000000000000013</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6955786736020806</v>
       </c>
       <c r="K39" s="3">
@@ -8695,35 +9863,35 @@
         <v>3</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7003034243606416</v>
       </c>
       <c r="T39" s="3">
         <v>0.17669000000000001</v>
       </c>
       <c r="U39" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17669</v>
       </c>
       <c r="V39" s="3">
         <v>3</v>
       </c>
       <c r="W39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7068053749458172</v>
       </c>
       <c r="AC39" s="3">
         <v>0.17446999999999999</v>
       </c>
       <c r="AD39" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17447</v>
       </c>
       <c r="AE39" s="3">
         <v>3</v>
       </c>
       <c r="AF39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7164282618118769</v>
       </c>
       <c r="AH39" s="7"/>
@@ -8733,7 +9901,7 @@
         <v>0.17926</v>
       </c>
       <c r="C40" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17926</v>
       </c>
       <c r="D40" s="3">
@@ -8741,7 +9909,7 @@
         <v>3.1000000000000014</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6956653662765497</v>
       </c>
       <c r="K40" s="3">
@@ -8755,35 +9923,35 @@
         <v>3.1</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.700433463372345</v>
       </c>
       <c r="T40" s="3">
         <v>0.17663999999999999</v>
       </c>
       <c r="U40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17664</v>
       </c>
       <c r="V40" s="3">
         <v>3.1</v>
       </c>
       <c r="W40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7070221066319895</v>
       </c>
       <c r="AC40" s="3">
         <v>0.1744</v>
       </c>
       <c r="AD40" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17440</v>
       </c>
       <c r="AE40" s="3">
         <v>3.1</v>
       </c>
       <c r="AF40" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7167316861725184</v>
       </c>
       <c r="AH40" s="7"/>
@@ -8793,7 +9961,7 @@
         <v>0.17924000000000001</v>
       </c>
       <c r="C41" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17924</v>
       </c>
       <c r="D41" s="3">
@@ -8801,7 +9969,7 @@
         <v>3.2000000000000015</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6957520589510187</v>
       </c>
       <c r="K41" s="3">
@@ -8815,35 +9983,35 @@
         <v>3.2</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7006501950585176</v>
       </c>
       <c r="T41" s="3">
         <v>0.17660000000000001</v>
       </c>
       <c r="U41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17660</v>
       </c>
       <c r="V41" s="3">
         <v>3.2</v>
       </c>
       <c r="W41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7071954919809276</v>
       </c>
       <c r="AC41" s="3">
         <v>0.17433000000000001</v>
       </c>
       <c r="AD41" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17433</v>
       </c>
       <c r="AE41" s="3">
         <v>3.2</v>
       </c>
       <c r="AF41" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.71703511053316</v>
       </c>
       <c r="AH41" s="7"/>
@@ -8853,7 +10021,7 @@
         <v>0.17921999999999999</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17922</v>
       </c>
       <c r="D42" s="3">
@@ -8861,7 +10029,7 @@
         <v>3.3000000000000016</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6958387516254876</v>
       </c>
       <c r="K42" s="3">
@@ -8875,35 +10043,35 @@
         <v>3.3</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7007802340702212</v>
       </c>
       <c r="T42" s="3">
         <v>0.17651</v>
       </c>
       <c r="U42" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17651</v>
       </c>
       <c r="V42" s="3">
         <v>3.3</v>
       </c>
       <c r="W42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7075856090160382</v>
       </c>
       <c r="AC42" s="3">
         <v>0.17419000000000001</v>
       </c>
       <c r="AD42" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17419</v>
       </c>
       <c r="AE42" s="3">
         <v>3.3</v>
       </c>
       <c r="AF42" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.717641959254443</v>
       </c>
       <c r="AH42" s="7"/>
@@ -8913,7 +10081,7 @@
         <v>0.1792</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17920</v>
       </c>
       <c r="D43" s="3">
@@ -8921,7 +10089,7 @@
         <v>3.4000000000000017</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6959254442999567</v>
       </c>
       <c r="K43" s="3">
@@ -8935,35 +10103,35 @@
         <v>3.4</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.700953619419159</v>
       </c>
       <c r="T43" s="3">
         <v>0.17646000000000001</v>
       </c>
       <c r="U43" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17646</v>
       </c>
       <c r="V43" s="3">
         <v>3.4</v>
       </c>
       <c r="W43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7078023407022107</v>
       </c>
       <c r="AC43" s="3">
         <v>0.17412</v>
       </c>
       <c r="AD43" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17412</v>
       </c>
       <c r="AE43" s="3">
         <v>3.4</v>
       </c>
       <c r="AF43" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7179453836150844</v>
       </c>
       <c r="AH43" s="7"/>
@@ -8973,7 +10141,7 @@
         <v>0.17918999999999999</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17919</v>
       </c>
       <c r="D44" s="3">
@@ -8981,7 +10149,7 @@
         <v>3.5000000000000018</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6959687906371912</v>
       </c>
       <c r="K44" s="3">
@@ -8995,35 +10163,35 @@
         <v>3.5</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7010836584308626</v>
       </c>
       <c r="T44" s="3">
         <v>0.17641999999999999</v>
       </c>
       <c r="U44" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17642</v>
       </c>
       <c r="V44" s="3">
         <v>3.5</v>
       </c>
       <c r="W44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7079757260511488</v>
       </c>
       <c r="AC44" s="3">
         <v>0.17405000000000001</v>
       </c>
       <c r="AD44" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17405</v>
       </c>
       <c r="AE44" s="3">
         <v>3.5</v>
       </c>
       <c r="AF44" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7182488079757261</v>
       </c>
       <c r="AH44" s="7"/>
@@ -9033,7 +10201,7 @@
         <v>0.17915</v>
       </c>
       <c r="C45" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17915</v>
       </c>
       <c r="D45" s="3">
@@ -9041,7 +10209,7 @@
         <v>3.6000000000000019</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6961421759861293</v>
       </c>
       <c r="K45" s="3">
@@ -9055,35 +10223,35 @@
         <v>3.6</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7011703511053315</v>
       </c>
       <c r="T45" s="3">
         <v>0.17637</v>
       </c>
       <c r="U45" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17637</v>
       </c>
       <c r="V45" s="3">
         <v>3.6</v>
       </c>
       <c r="W45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7081924577373211</v>
       </c>
       <c r="AC45" s="3">
         <v>0.17398</v>
       </c>
       <c r="AD45" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17398</v>
       </c>
       <c r="AE45" s="3">
         <v>3.6</v>
       </c>
       <c r="AF45" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7185522323363676</v>
       </c>
       <c r="AH45" s="7"/>
@@ -9093,7 +10261,7 @@
         <v>0.17913000000000001</v>
       </c>
       <c r="C46" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17913</v>
       </c>
       <c r="D46" s="3">
@@ -9101,7 +10269,7 @@
         <v>3.700000000000002</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6962288686605982</v>
       </c>
       <c r="K46" s="3">
@@ -9115,35 +10283,35 @@
         <v>3.7</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7013437364542696</v>
       </c>
       <c r="T46" s="3">
         <v>0.17632999999999999</v>
       </c>
       <c r="U46" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17633</v>
       </c>
       <c r="V46" s="3">
         <v>3.7</v>
       </c>
       <c r="W46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7083658430862592</v>
       </c>
       <c r="AC46" s="3">
         <v>0.17391999999999999</v>
       </c>
       <c r="AD46" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17392</v>
       </c>
       <c r="AE46" s="3">
         <v>3.7</v>
       </c>
       <c r="AF46" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7188123103597746</v>
       </c>
       <c r="AH46" s="7"/>
@@ -9153,7 +10321,7 @@
         <v>0.17912</v>
       </c>
       <c r="C47" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17912</v>
       </c>
       <c r="D47" s="3">
@@ -9161,7 +10329,7 @@
         <v>3.800000000000002</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6962722149978327</v>
       </c>
       <c r="K47" s="3">
@@ -9175,35 +10343,35 @@
         <v>3.8</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7014737754659732</v>
       </c>
       <c r="T47" s="3">
         <v>0.17627999999999999</v>
       </c>
       <c r="U47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17628</v>
       </c>
       <c r="V47" s="3">
         <v>3.8</v>
       </c>
       <c r="W47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7085825747724317</v>
       </c>
       <c r="AC47" s="3">
         <v>0.17383999999999999</v>
       </c>
       <c r="AD47" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17384</v>
       </c>
       <c r="AE47" s="3">
         <v>3.8</v>
       </c>
       <c r="AF47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7191590810576507</v>
       </c>
       <c r="AH47" s="7"/>
@@ -9213,7 +10381,7 @@
         <v>0.17909</v>
       </c>
       <c r="C48" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17909</v>
       </c>
       <c r="D48" s="3">
@@ -9221,7 +10389,7 @@
         <v>3.9000000000000021</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6964022540095363</v>
       </c>
       <c r="K48" s="3">
@@ -9235,35 +10403,35 @@
         <v>3.9</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7017771998266147</v>
       </c>
       <c r="T48" s="3">
         <v>0.17619000000000001</v>
       </c>
       <c r="U48" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17619</v>
       </c>
       <c r="V48" s="3">
         <v>3.9</v>
       </c>
       <c r="W48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7089726918075423</v>
       </c>
       <c r="AC48" s="3">
         <v>0.17377999999999999</v>
       </c>
       <c r="AD48" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17378</v>
       </c>
       <c r="AE48" s="3">
         <v>3.9</v>
       </c>
       <c r="AF48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7194191590810577</v>
       </c>
       <c r="AH48" s="7"/>
@@ -9273,7 +10441,7 @@
         <v>0.17907999999999999</v>
       </c>
       <c r="C49" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17908</v>
       </c>
       <c r="D49" s="3">
@@ -9281,7 +10449,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6964456003467707</v>
       </c>
       <c r="K49" s="3">
@@ -9295,35 +10463,35 @@
         <v>4</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7018638925010836</v>
       </c>
       <c r="T49" s="3">
         <v>0.17615</v>
       </c>
       <c r="U49" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17615</v>
       </c>
       <c r="V49" s="3">
         <v>4</v>
       </c>
       <c r="W49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7091460771564804</v>
       </c>
       <c r="AC49" s="3">
         <v>0.17363999999999999</v>
       </c>
       <c r="AD49" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17364</v>
       </c>
       <c r="AE49" s="3">
         <v>4</v>
       </c>
       <c r="AF49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7200260078023406</v>
       </c>
       <c r="AH49" s="7"/>
@@ -9333,7 +10501,7 @@
         <v>0.17906</v>
       </c>
       <c r="C50" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17906</v>
       </c>
       <c r="D50" s="3">
@@ -9341,7 +10509,7 @@
         <v>4.1000000000000014</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6965322930212396</v>
       </c>
       <c r="K50" s="3">
@@ -9355,35 +10523,35 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7020372778500217</v>
       </c>
       <c r="T50" s="3">
         <v>0.17610000000000001</v>
       </c>
       <c r="U50" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17610</v>
       </c>
       <c r="V50" s="3">
         <v>4.0999999999999996</v>
       </c>
       <c r="W50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7093628088426529</v>
       </c>
       <c r="AC50" s="3">
         <v>0.17358000000000001</v>
       </c>
       <c r="AD50" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17358</v>
       </c>
       <c r="AE50" s="3">
         <v>4.0999999999999996</v>
       </c>
       <c r="AF50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7202860858257478</v>
       </c>
       <c r="AH50" s="7"/>
@@ -9393,7 +10561,7 @@
         <v>0.17904</v>
       </c>
       <c r="C51" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17904</v>
       </c>
       <c r="D51" s="3">
@@ -9401,7 +10569,7 @@
         <v>4.2000000000000011</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6966189856957088</v>
       </c>
       <c r="K51" s="3">
@@ -9422,28 +10590,28 @@
         <v>0.17605999999999999</v>
       </c>
       <c r="U51" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17606</v>
       </c>
       <c r="V51" s="3">
         <v>4.2</v>
       </c>
       <c r="W51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7095361941915908</v>
       </c>
       <c r="AC51" s="3">
         <v>0.17351</v>
       </c>
       <c r="AD51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17351</v>
       </c>
       <c r="AE51" s="3">
         <v>4.2</v>
       </c>
       <c r="AF51" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7205895101863893</v>
       </c>
       <c r="AH51" s="7"/>
@@ -9453,7 +10621,7 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="C52" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17900</v>
       </c>
       <c r="D52" s="3">
@@ -9461,7 +10629,7 @@
         <v>4.3000000000000007</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6967923710446466</v>
       </c>
       <c r="K52" s="3">
@@ -9482,28 +10650,28 @@
         <v>0.17602000000000001</v>
       </c>
       <c r="U52" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17602</v>
       </c>
       <c r="V52" s="3">
         <v>4.3</v>
       </c>
       <c r="W52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7097095795405288</v>
       </c>
       <c r="AC52" s="3">
         <v>0.17344000000000001</v>
       </c>
       <c r="AD52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17344</v>
       </c>
       <c r="AE52" s="3">
         <v>4.3</v>
       </c>
       <c r="AF52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7208929345470307</v>
       </c>
       <c r="AH52" s="7"/>
@@ -9513,7 +10681,7 @@
         <v>0.17898</v>
       </c>
       <c r="C53" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17898</v>
       </c>
       <c r="D53" s="3">
@@ -9521,7 +10689,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6968790637191158</v>
       </c>
       <c r="K53" s="3">
@@ -9542,28 +10710,28 @@
         <v>0.17596999999999999</v>
       </c>
       <c r="U53" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17597</v>
       </c>
       <c r="V53" s="3">
         <v>4.4000000000000004</v>
       </c>
       <c r="W53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7099263112267014</v>
       </c>
       <c r="AC53" s="3">
         <v>0.17338000000000001</v>
       </c>
       <c r="AD53" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17338</v>
       </c>
       <c r="AE53" s="3">
         <v>4.4000000000000004</v>
       </c>
       <c r="AF53" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7211530125704377</v>
       </c>
       <c r="AH53" s="7"/>
@@ -9573,7 +10741,7 @@
         <v>0.17896999999999999</v>
       </c>
       <c r="C54" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17897</v>
       </c>
       <c r="D54" s="3">
@@ -9581,7 +10749,7 @@
         <v>4.5</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6969224100563502</v>
       </c>
       <c r="K54" s="3">
@@ -9602,28 +10770,28 @@
         <v>0.17588000000000001</v>
       </c>
       <c r="U54" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17588</v>
       </c>
       <c r="V54" s="3">
         <v>4.5</v>
       </c>
       <c r="W54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.710316428261812</v>
       </c>
       <c r="AC54" s="3">
         <v>0.17330999999999999</v>
       </c>
       <c r="AD54" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17331</v>
       </c>
       <c r="AE54" s="3">
         <v>4.5</v>
       </c>
       <c r="AF54" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7214564369310794</v>
       </c>
       <c r="AH54" s="7"/>
@@ -9633,7 +10801,7 @@
         <v>0.17895</v>
       </c>
       <c r="C55" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17895</v>
       </c>
       <c r="D55" s="3">
@@ -9641,7 +10809,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6970091027308192</v>
       </c>
       <c r="K55" s="3">
@@ -9662,28 +10830,28 @@
         <v>0.17584</v>
       </c>
       <c r="U55" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17584</v>
       </c>
       <c r="V55" s="3">
         <v>4.5999999999999996</v>
       </c>
       <c r="W55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7104898136107498</v>
       </c>
       <c r="AC55" s="3">
         <v>0.17316999999999999</v>
       </c>
       <c r="AD55" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17317</v>
       </c>
       <c r="AE55" s="3">
         <v>4.5999999999999996</v>
       </c>
       <c r="AF55" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7220632856523623</v>
       </c>
       <c r="AH55" s="7"/>
@@ -9693,7 +10861,7 @@
         <v>0.17893000000000001</v>
       </c>
       <c r="C56" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17893</v>
       </c>
       <c r="D56" s="3">
@@ -9701,7 +10869,7 @@
         <v>4.6999999999999993</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6970957954052883</v>
       </c>
       <c r="K56" s="3">
@@ -9722,28 +10890,28 @@
         <v>0.17580000000000001</v>
       </c>
       <c r="U56" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17580</v>
       </c>
       <c r="V56" s="3">
         <v>4.7</v>
       </c>
       <c r="W56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7106631989596879</v>
       </c>
       <c r="AC56" s="3">
         <v>0.17311000000000001</v>
       </c>
       <c r="AD56" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17311</v>
       </c>
       <c r="AE56" s="3">
         <v>4.7</v>
       </c>
       <c r="AF56" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7223233636757693</v>
       </c>
       <c r="AH56" s="7"/>
@@ -9753,7 +10921,7 @@
         <v>0.17891000000000001</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17891</v>
       </c>
       <c r="D57" s="3">
@@ -9761,7 +10929,7 @@
         <v>4.7999999999999989</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6971824880797572</v>
       </c>
       <c r="K57" s="3">
@@ -9782,28 +10950,28 @@
         <v>0.17574999999999999</v>
       </c>
       <c r="U57" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17575</v>
       </c>
       <c r="V57" s="3">
         <v>4.8</v>
       </c>
       <c r="W57" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7108799306458604</v>
       </c>
       <c r="AC57" s="3">
         <v>0.17304</v>
       </c>
       <c r="AD57" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17304</v>
       </c>
       <c r="AE57" s="3">
         <v>4.8</v>
       </c>
       <c r="AF57" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.722626788036411</v>
       </c>
       <c r="AH57" s="7"/>
@@ -9813,7 +10981,7 @@
         <v>0.17888000000000001</v>
       </c>
       <c r="C58" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17888</v>
       </c>
       <c r="D58" s="3">
@@ -9821,7 +10989,7 @@
         <v>4.8999999999999986</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6973125270914609</v>
       </c>
       <c r="K58" s="3">
@@ -9842,28 +11010,28 @@
         <v>0.17571000000000001</v>
       </c>
       <c r="U58" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17571</v>
       </c>
       <c r="V58" s="3">
         <v>4.9000000000000004</v>
       </c>
       <c r="W58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7110533159947985</v>
       </c>
       <c r="AC58" s="3">
         <v>0.17297000000000001</v>
       </c>
       <c r="AD58" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17297</v>
       </c>
       <c r="AE58" s="3">
         <v>4.9000000000000004</v>
       </c>
       <c r="AF58" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7229302123970525</v>
       </c>
       <c r="AH58" s="7"/>
@@ -9873,7 +11041,7 @@
         <v>0.17885999999999999</v>
       </c>
       <c r="C59" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17886</v>
       </c>
       <c r="D59" s="3">
@@ -9881,7 +11049,7 @@
         <v>4.9999999999999982</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6973992197659298</v>
       </c>
       <c r="K59" s="3">
@@ -9916,14 +11084,14 @@
         <v>0.17291000000000001</v>
       </c>
       <c r="AD59" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17291</v>
       </c>
       <c r="AE59" s="3">
         <v>5</v>
       </c>
       <c r="AF59" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7231902904204595</v>
       </c>
       <c r="AH59" s="7"/>
@@ -9933,7 +11101,7 @@
         <v>0.17884</v>
       </c>
       <c r="C60" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17884</v>
       </c>
       <c r="D60" s="3">
@@ -9941,7 +11109,7 @@
         <v>5.0999999999999979</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6974859124403987</v>
       </c>
       <c r="K60" s="3">
@@ -9976,14 +11144,14 @@
         <v>0.17283999999999999</v>
       </c>
       <c r="AD60" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17284</v>
       </c>
       <c r="AE60" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="AF60" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7234937147811009</v>
       </c>
       <c r="AH60" s="7"/>
@@ -9993,7 +11161,7 @@
         <v>0.17882000000000001</v>
       </c>
       <c r="C61" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17882</v>
       </c>
       <c r="D61" s="3">
@@ -10001,7 +11169,7 @@
         <v>5.1999999999999975</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6975726051148678</v>
       </c>
       <c r="K61" s="3">
@@ -10036,14 +11204,14 @@
         <v>0.17277000000000001</v>
       </c>
       <c r="AD61" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17277</v>
       </c>
       <c r="AE61" s="3">
         <v>5.2</v>
       </c>
       <c r="AF61" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7237971391417426</v>
       </c>
       <c r="AH61" s="7"/>
@@ -10053,7 +11221,7 @@
         <v>0.17879999999999999</v>
       </c>
       <c r="C62" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17880</v>
       </c>
       <c r="D62" s="3">
@@ -10061,7 +11229,7 @@
         <v>5.2999999999999972</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6976592977893368</v>
       </c>
       <c r="K62" s="3">
@@ -10096,14 +11264,14 @@
         <v>0.17263999999999999</v>
       </c>
       <c r="AD62" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17264</v>
       </c>
       <c r="AE62" s="3">
         <v>5.3</v>
       </c>
       <c r="AF62" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.724360641525791</v>
       </c>
       <c r="AH62" s="7"/>
@@ -10113,7 +11281,7 @@
         <v>0.17877999999999999</v>
       </c>
       <c r="C63" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17878</v>
       </c>
       <c r="D63" s="3">
@@ -10121,7 +11289,7 @@
         <v>5.3999999999999968</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6977459904638057</v>
       </c>
       <c r="K63" s="3">
@@ -10156,14 +11324,14 @@
         <v>0.17258000000000001</v>
       </c>
       <c r="AD63" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17258</v>
       </c>
       <c r="AE63" s="3">
         <v>5.4</v>
       </c>
       <c r="AF63" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.724620719549198</v>
       </c>
       <c r="AH63" s="7"/>
@@ -10173,7 +11341,7 @@
         <v>0.17876</v>
       </c>
       <c r="C64" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17876</v>
       </c>
       <c r="D64" s="3">
@@ -10181,7 +11349,7 @@
         <v>5.4999999999999964</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6978326831382748</v>
       </c>
       <c r="K64" s="3">
@@ -10216,14 +11384,14 @@
         <v>0.17251</v>
       </c>
       <c r="AD64" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17251</v>
       </c>
       <c r="AE64" s="3">
         <v>5.5</v>
       </c>
       <c r="AF64" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7249241439098397</v>
       </c>
       <c r="AH64" s="7"/>
@@ -10233,7 +11401,7 @@
         <v>0.17873</v>
       </c>
       <c r="C65" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17873</v>
       </c>
       <c r="D65" s="3">
@@ -10241,7 +11409,7 @@
         <v>5.5999999999999961</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6979627221499782</v>
       </c>
       <c r="K65" s="3">
@@ -10276,14 +11444,14 @@
         <v>0.17244999999999999</v>
       </c>
       <c r="AD65" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17245</v>
       </c>
       <c r="AE65" s="3">
         <v>5.6</v>
       </c>
       <c r="AF65" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7251842219332467</v>
       </c>
       <c r="AH65" s="7"/>
@@ -10293,7 +11461,7 @@
         <v>0.17871000000000001</v>
       </c>
       <c r="C66" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17871</v>
       </c>
       <c r="D66" s="3">
@@ -10301,7 +11469,7 @@
         <v>5.6999999999999957</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6980494148244474</v>
       </c>
       <c r="K66" s="3">
@@ -10336,14 +11504,14 @@
         <v>0.17238000000000001</v>
       </c>
       <c r="AD66" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17238</v>
       </c>
       <c r="AE66" s="3">
         <v>5.7</v>
       </c>
       <c r="AF66" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7254876462938882</v>
       </c>
       <c r="AH66" s="7"/>
@@ -10353,7 +11521,7 @@
         <v>0.17868999999999999</v>
       </c>
       <c r="C67" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17869</v>
       </c>
       <c r="D67" s="3">
@@ -10361,7 +11529,7 @@
         <v>5.7999999999999954</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6981361074989163</v>
       </c>
       <c r="K67" s="3">
@@ -10396,14 +11564,14 @@
         <v>0.17230999999999999</v>
       </c>
       <c r="AD67" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17231</v>
       </c>
       <c r="AE67" s="3">
         <v>5.8</v>
       </c>
       <c r="AF67" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7257910706545296</v>
       </c>
       <c r="AH67" s="7"/>
@@ -10413,7 +11581,7 @@
         <v>0.17867</v>
       </c>
       <c r="C68" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17867</v>
       </c>
       <c r="D68" s="3">
@@ -10421,7 +11589,7 @@
         <v>5.899999999999995</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6982228001733854</v>
       </c>
       <c r="K68" s="3">
@@ -10456,14 +11624,14 @@
         <v>0.17219000000000001</v>
       </c>
       <c r="AD68" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17219</v>
       </c>
       <c r="AE68" s="3">
         <v>5.9</v>
       </c>
       <c r="AF68" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7263112267013436</v>
       </c>
       <c r="AH68" s="7"/>
@@ -10473,7 +11641,7 @@
         <v>0.17866000000000001</v>
       </c>
       <c r="C69" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17866</v>
       </c>
       <c r="D69" s="3">
@@ -10481,7 +11649,7 @@
         <v>5.9999999999999947</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6982661465106199</v>
       </c>
       <c r="K69" s="3">
@@ -10516,14 +11684,14 @@
         <v>0.17212</v>
       </c>
       <c r="AD69" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17212</v>
       </c>
       <c r="AE69" s="3">
         <v>6</v>
       </c>
       <c r="AF69" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7266146510619853</v>
       </c>
       <c r="AH69" s="7"/>
@@ -10533,7 +11701,7 @@
         <v>0.17863999999999999</v>
       </c>
       <c r="C70" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17864</v>
       </c>
       <c r="D70" s="3">
@@ -10541,7 +11709,7 @@
         <v>6.0999999999999943</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6983528391850888</v>
       </c>
       <c r="K70" s="3">
@@ -10576,14 +11744,14 @@
         <v>0.17205999999999999</v>
       </c>
       <c r="AD70" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17206</v>
       </c>
       <c r="AE70" s="3">
         <v>6.1</v>
       </c>
       <c r="AF70" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7268747290853923</v>
       </c>
       <c r="AH70" s="7"/>
@@ -10593,7 +11761,7 @@
         <v>0.17860000000000001</v>
       </c>
       <c r="C71" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17860</v>
       </c>
       <c r="D71" s="3">
@@ -10601,7 +11769,7 @@
         <v>6.199999999999994</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6985262245340269</v>
       </c>
       <c r="K71" s="3">
@@ -10636,14 +11804,14 @@
         <v>0.17199</v>
       </c>
       <c r="AD71" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17199</v>
       </c>
       <c r="AE71" s="3">
         <v>6.2</v>
       </c>
       <c r="AF71" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7271781534460338</v>
       </c>
       <c r="AH71" s="7"/>
@@ -10653,7 +11821,7 @@
         <v>0.17857999999999999</v>
       </c>
       <c r="C72" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17858</v>
       </c>
       <c r="D72" s="3">
@@ -10661,7 +11829,7 @@
         <v>6.2999999999999936</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6986129172084958</v>
       </c>
       <c r="K72" s="3">
@@ -10696,14 +11864,14 @@
         <v>0.17193</v>
       </c>
       <c r="AD72" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17193</v>
       </c>
       <c r="AE72" s="3">
         <v>6.3</v>
       </c>
       <c r="AF72" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7274382314694408</v>
       </c>
       <c r="AH72" s="7"/>
@@ -10713,7 +11881,7 @@
         <v>0.17857000000000001</v>
       </c>
       <c r="C73" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17857</v>
       </c>
       <c r="D73" s="3">
@@ -10721,7 +11889,7 @@
         <v>6.3999999999999932</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6986562635457303</v>
       </c>
       <c r="K73" s="3">
@@ -10756,14 +11924,14 @@
         <v>0.17186000000000001</v>
       </c>
       <c r="AD73" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17186</v>
       </c>
       <c r="AE73" s="3">
         <v>6.4</v>
       </c>
       <c r="AF73" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7277416558300824</v>
       </c>
       <c r="AH73" s="7"/>
